--- a/Figures and tables/S7 Table Identified QTLs found in Other Studies.xlsx
+++ b/Figures and tables/S7 Table Identified QTLs found in Other Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Revision\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B37BDB-D7D7-4A0E-812E-DA10BA1FB3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD33ED-33DB-4B85-957E-D43BBF86C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Chromosome</t>
   </si>
   <si>
     <t>Peak SNP position</t>
-  </si>
-  <si>
-    <t>qCDP1</t>
   </si>
   <si>
     <t>S1_38286772
@@ -50,9 +47,6 @@
     <t>Study</t>
   </si>
   <si>
-    <t>qCDP7</t>
-  </si>
-  <si>
     <t>S6_20929261
 S6_20929283</t>
   </si>
@@ -84,13 +78,7 @@
     <t>Mai et al. 2020</t>
   </si>
   <si>
-    <t>qCDP6</t>
-  </si>
-  <si>
     <t>RTL</t>
-  </si>
-  <si>
-    <t>qCDP17</t>
   </si>
   <si>
     <t>S12_25709174
@@ -109,9 +97,6 @@
     <t>https://doi.org/10.1186/s12284-019-0327-5</t>
   </si>
   <si>
-    <t>qCDP15</t>
-  </si>
-  <si>
     <t>SHW/ SHL</t>
   </si>
   <si>
@@ -145,27 +130,6 @@
     <t>https://doi.org/10.1007/s10725-020-00644-x</t>
   </si>
   <si>
-    <t>qCDP4</t>
-  </si>
-  <si>
-    <t>Grain_shape, Grain_length, Grain_width</t>
-  </si>
-  <si>
-    <t>Misra et al. 2017</t>
-  </si>
-  <si>
-    <t>qCDP5</t>
-  </si>
-  <si>
-    <t>Grain width</t>
-  </si>
-  <si>
-    <t>Huang et al. 2010</t>
-  </si>
-  <si>
-    <t>http://www.nature.com/doifinder/10.1038/ng.695</t>
-  </si>
-  <si>
     <t>TDW</t>
   </si>
   <si>
@@ -175,12 +139,6 @@
     <t>https://doi.org/10.1007/s00438-017-1354-9</t>
   </si>
   <si>
-    <t>qCDP11</t>
-  </si>
-  <si>
-    <t>qCDP8</t>
-  </si>
-  <si>
     <t>SSI_IR_48h</t>
   </si>
   <si>
@@ -200,9 +158,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1371/journal.pone.0190964</t>
-  </si>
-  <si>
-    <t>qCDP9</t>
   </si>
   <si>
     <t>S8_27238050
@@ -245,9 +200,6 @@
     <t>Xoo PXO99A-pHM1-tal7b resistance</t>
   </si>
   <si>
-    <t>qCDP10</t>
-  </si>
-  <si>
     <t>Low temperature seedling survivability (LTSS)</t>
   </si>
   <si>
@@ -260,9 +212,6 @@
     <t>https://doi.org/10.3389/fpls.2017.00957</t>
   </si>
   <si>
-    <t>qCDP13</t>
-  </si>
-  <si>
     <t>SSI score, ∆ PHT, ∆ green leaf#, biomass</t>
   </si>
   <si>
@@ -278,10 +227,37 @@
     <t>QTL</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41598-017-12778-6</t>
-  </si>
-  <si>
     <t>Supplementary table 7. Details on QTLs from previous studies that were found to have similar connotations as our findings.</t>
+  </si>
+  <si>
+    <t>qCDP1.1</t>
+  </si>
+  <si>
+    <t>qCDP6.1</t>
+  </si>
+  <si>
+    <t>qCDP8.1</t>
+  </si>
+  <si>
+    <t>qCDP12.3</t>
+  </si>
+  <si>
+    <t>qCDP5.1</t>
+  </si>
+  <si>
+    <t>qCDP12.1</t>
+  </si>
+  <si>
+    <t>qCDP7.1</t>
+  </si>
+  <si>
+    <t>qCDP9.2</t>
+  </si>
+  <si>
+    <t>qCDP9.1</t>
+  </si>
+  <si>
+    <t>qCDP10.1</t>
   </si>
 </sst>
 </file>
@@ -618,31 +594,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -651,21 +627,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -674,21 +650,21 @@
         <v>38423605</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -697,21 +673,21 @@
         <v>38423605</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -720,21 +696,21 @@
         <v>20760852</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -743,21 +719,21 @@
         <v>27323749</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2">
         <v>12</v>
@@ -766,21 +742,21 @@
         <v>25769505</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -792,18 +768,18 @@
         <v>38808536</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -815,18 +791,18 @@
         <v>17325094</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -838,18 +814,18 @@
         <v>38490041</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2">
         <v>12</v>
@@ -861,18 +837,18 @@
         <v>2812596</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -881,21 +857,21 @@
         <v>38423605</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -904,21 +880,21 @@
         <v>38423605</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -930,87 +906,87 @@
         <v>38254634</v>
       </c>
       <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17632907</v>
+      </c>
+      <c r="D15">
+        <v>17491701</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21913935</v>
+      </c>
+      <c r="D16">
+        <v>21649301</v>
+      </c>
+      <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>11455731</v>
+      </c>
+      <c r="D17">
+        <v>11450011</v>
+      </c>
+      <c r="E17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>16733441</v>
-      </c>
-      <c r="D15">
-        <v>16733441</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4865065</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4907158</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>17632907</v>
-      </c>
-      <c r="D17">
-        <v>17491701</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
@@ -1019,67 +995,67 @@
         <v>21913935</v>
       </c>
       <c r="D18">
-        <v>21649301</v>
+        <v>22274975</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>11455731</v>
-      </c>
-      <c r="D19">
-        <v>11450011</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
+        <v>21913935</v>
+      </c>
+      <c r="D19" s="2">
+        <v>22274975</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>21913935</v>
+        <v>27323749</v>
       </c>
       <c r="D20">
-        <v>22274975</v>
+        <v>27352942</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2">
         <v>7</v>
@@ -1087,22 +1063,22 @@
       <c r="C21" s="2">
         <v>21913935</v>
       </c>
-      <c r="D21" s="2">
-        <v>22274975</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>60</v>
+      <c r="D21">
+        <v>22015077</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2">
         <v>8</v>
@@ -1111,151 +1087,105 @@
         <v>27323749</v>
       </c>
       <c r="D22">
-        <v>27352942</v>
+        <v>27353014</v>
       </c>
       <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>27323749</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9438999</v>
+      </c>
+      <c r="D24">
+        <v>9.4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25769505</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>18641874</v>
+      </c>
+      <c r="D26" s="5">
+        <v>18801757</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2">
-        <v>21913935</v>
-      </c>
-      <c r="D23">
-        <v>22015077</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="2">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
-        <v>27323749</v>
-      </c>
-      <c r="D24">
-        <v>27353014</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="2">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
-        <v>27323749</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="2">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9438999</v>
-      </c>
-      <c r="D26">
-        <v>9.4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2">
-        <v>25769505</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2">
-        <v>18641874</v>
-      </c>
-      <c r="D28" s="5">
-        <v>18801757</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1271,20 +1201,18 @@
     <hyperlink ref="G10" r:id="rId9" xr:uid="{E218D516-E0B8-4FE6-A740-2F8920150F3E}"/>
     <hyperlink ref="G13" r:id="rId10" xr:uid="{35E22231-D2C0-4E7D-A027-9E216AC4DE05}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{C0880B88-A826-4C8A-A399-B510F5654EE1}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{1096B835-A45A-45DC-A8F0-33A94231B712}"/>
-    <hyperlink ref="G16" r:id="rId13" xr:uid="{67639496-56A0-46C1-AB7B-C9CDA19732D1}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{240BB9CF-A3E1-4101-8F38-31F0F5DC1A00}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{1E52DD6F-5B35-4D85-B3B5-F7869CAB84AD}"/>
-    <hyperlink ref="G19" r:id="rId16" xr:uid="{46A1D7F1-FED2-4E82-80C6-F1333D9C39DA}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{7D130069-9828-49D8-B2B5-27A9CCC6CB4A}"/>
-    <hyperlink ref="G6" r:id="rId18" xr:uid="{6EC9E9E3-DF66-4EB3-AE83-033A98BF7662}"/>
-    <hyperlink ref="G21" r:id="rId19" xr:uid="{2476C138-000C-4724-A2ED-D2BB7BE30982}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{14017127-64FB-4E6D-AFE0-3E663E562A28}"/>
-    <hyperlink ref="G23" r:id="rId21" xr:uid="{B0E923FE-5D73-46AF-933B-04BCFEAA5178}"/>
-    <hyperlink ref="G24" r:id="rId22" xr:uid="{92224507-C9DD-45ED-948B-3156CE5C8BCC}"/>
-    <hyperlink ref="G26" r:id="rId23" xr:uid="{469C332A-1CBA-4FC6-8B6A-2A814D4A5CB3}"/>
-    <hyperlink ref="G27" r:id="rId24" xr:uid="{B08C3ADB-F085-4065-9EE4-525AF91E5F59}"/>
-    <hyperlink ref="G28" r:id="rId25" xr:uid="{D1B4D3D6-CDF7-4D63-A34A-A44B81E7476D}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{240BB9CF-A3E1-4101-8F38-31F0F5DC1A00}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{1E52DD6F-5B35-4D85-B3B5-F7869CAB84AD}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{46A1D7F1-FED2-4E82-80C6-F1333D9C39DA}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{7D130069-9828-49D8-B2B5-27A9CCC6CB4A}"/>
+    <hyperlink ref="G6" r:id="rId16" xr:uid="{6EC9E9E3-DF66-4EB3-AE83-033A98BF7662}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{2476C138-000C-4724-A2ED-D2BB7BE30982}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{14017127-64FB-4E6D-AFE0-3E663E562A28}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{B0E923FE-5D73-46AF-933B-04BCFEAA5178}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{92224507-C9DD-45ED-948B-3156CE5C8BCC}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{469C332A-1CBA-4FC6-8B6A-2A814D4A5CB3}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{B08C3ADB-F085-4065-9EE4-525AF91E5F59}"/>
+    <hyperlink ref="G26" r:id="rId23" xr:uid="{D1B4D3D6-CDF7-4D63-A34A-A44B81E7476D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
